--- a/Planding DB.xlsx
+++ b/Planding DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\w.취업\자바JSP 팀 포트폴리오\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E887E0D-5AC3-46BA-8218-070256D35434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE76793E-9C72-4662-B11A-30463C644F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="1485" windowWidth="13770" windowHeight="18780" xr2:uid="{F2435A91-519C-442E-B710-4467B606B833}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="171">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,6 +711,22 @@
 프로젝트 기획자 신뢰성 : 휴대폰 본인 인증 api가 유료이므로 향후 업데이트할 내용으로 정리
 인기 프로젝트? 좋아요 수가 많은 프로젝트. 신규 프로젝트? 최근 7일 이내 시작된 프로젝트.
 마감임박? 종료일까지 7일 이하로 남은 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 테이블 (project__tbl)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +768,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -821,13 +837,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,17 +871,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,11 +895,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54615CB-CB91-4431-9AEA-EA1D6DC750FD}">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123:F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,100 +1240,100 @@
   <sheetData>
     <row r="1" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -1317,12 +1351,12 @@
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
@@ -1340,10 +1374,10 @@
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
@@ -1361,10 +1395,10 @@
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -1382,10 +1416,10 @@
       <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
@@ -1403,10 +1437,10 @@
       <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
@@ -1424,10 +1458,10 @@
       <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
@@ -1445,10 +1479,10 @@
       <c r="F16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
@@ -1466,10 +1500,10 @@
       <c r="F17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
@@ -1487,10 +1521,10 @@
       <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
@@ -1508,10 +1542,10 @@
       <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
@@ -1529,10 +1563,10 @@
       <c r="F20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
@@ -1550,10 +1584,10 @@
       <c r="F21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
@@ -1571,25 +1605,25 @@
       <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="H24" s="8" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="H24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -1607,10 +1641,10 @@
       <c r="F25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
@@ -1628,10 +1662,10 @@
       <c r="F26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
@@ -1649,10 +1683,10 @@
       <c r="F27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
@@ -1670,10 +1704,10 @@
       <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
@@ -1691,10 +1725,10 @@
       <c r="F29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
@@ -1712,25 +1746,25 @@
       <c r="F30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="H32" s="7" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="H32" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
@@ -1748,10 +1782,10 @@
       <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
@@ -1769,10 +1803,10 @@
       <c r="F34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
@@ -1790,10 +1824,10 @@
       <c r="F35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
@@ -1811,10 +1845,10 @@
       <c r="F36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
@@ -1826,19 +1860,19 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="H38" s="7" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="H38" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
@@ -1856,10 +1890,10 @@
       <c r="F39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
@@ -1877,10 +1911,10 @@
       <c r="F40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
@@ -1898,10 +1932,10 @@
       <c r="F41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
@@ -1919,10 +1953,10 @@
       <c r="F42" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
@@ -1932,19 +1966,19 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="H44" s="7" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="H44" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
@@ -1962,10 +1996,10 @@
       <c r="F45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
@@ -1983,10 +2017,10 @@
       <c r="F46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
@@ -2004,10 +2038,10 @@
       <c r="F47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
@@ -2025,10 +2059,10 @@
       <c r="F48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
@@ -2046,10 +2080,10 @@
       <c r="F49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
@@ -2067,25 +2101,25 @@
       <c r="F50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="H52" s="8" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="H52" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
@@ -2103,10 +2137,10 @@
       <c r="F53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
@@ -2124,10 +2158,10 @@
       <c r="F54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
@@ -2145,10 +2179,10 @@
       <c r="F55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
@@ -2166,10 +2200,10 @@
       <c r="F56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
@@ -2187,25 +2221,25 @@
       <c r="F57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="H59" s="8" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="H59" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
@@ -2223,10 +2257,10 @@
       <c r="F60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
@@ -2244,10 +2278,10 @@
       <c r="F61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
@@ -2265,10 +2299,10 @@
       <c r="F62" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
@@ -2286,10 +2320,10 @@
       <c r="F63" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
@@ -2307,10 +2341,10 @@
       <c r="F64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
@@ -2328,25 +2362,25 @@
       <c r="F65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="H67" s="7" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="H67" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
@@ -2364,10 +2398,10 @@
       <c r="F68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
@@ -2385,10 +2419,10 @@
       <c r="F69" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
@@ -2406,10 +2440,10 @@
       <c r="F70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
@@ -2427,10 +2461,10 @@
       <c r="F71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
@@ -2448,10 +2482,10 @@
       <c r="F72" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
@@ -2469,25 +2503,25 @@
       <c r="F73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="H75" s="7" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="H75" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
@@ -2505,10 +2539,10 @@
       <c r="F76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
@@ -2526,10 +2560,10 @@
       <c r="F77" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="3">
@@ -2547,10 +2581,10 @@
       <c r="F78" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="3">
@@ -2568,10 +2602,10 @@
       <c r="F79" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="3">
@@ -2589,10 +2623,10 @@
       <c r="F80" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
@@ -2610,10 +2644,10 @@
       <c r="F81" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
@@ -2629,10 +2663,10 @@
         <v>103</v>
       </c>
       <c r="F82" s="3"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
@@ -2650,19 +2684,19 @@
       <c r="F83" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
@@ -2733,13 +2767,13 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
@@ -2810,13 +2844,13 @@
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
@@ -2870,13 +2904,13 @@
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
@@ -2930,19 +2964,19 @@
       </c>
     </row>
     <row r="107" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="H107" s="7" t="s">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="H107" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
@@ -2960,10 +2994,10 @@
       <c r="F108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="3">
@@ -2981,10 +3015,10 @@
       <c r="F109" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="3">
@@ -3002,10 +3036,10 @@
       <c r="F110" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="3">
@@ -3023,10 +3057,10 @@
       <c r="F111" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" s="3">
@@ -3044,10 +3078,10 @@
       <c r="F112" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" s="3">
@@ -3065,10 +3099,10 @@
       <c r="F113" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" s="3">
@@ -3086,10 +3120,10 @@
       <c r="F114" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" s="3">
@@ -3107,25 +3141,25 @@
       <c r="F115" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="H117" s="8" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="H117" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
@@ -3143,10 +3177,10 @@
       <c r="F118" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="3">
@@ -3164,10 +3198,10 @@
       <c r="F119" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" s="3">
@@ -3185,10 +3219,10 @@
       <c r="F120" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B121" s="3">
@@ -3206,105 +3240,177 @@
       <c r="F121" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B123" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
+      <c r="B123" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B124" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="H124" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
+      <c r="B124" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B125" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="B125" s="3">
         <v>1</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
+      <c r="C125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127" s="16"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="13"/>
+      <c r="H129" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="D130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E131" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127" s="3">
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B132" s="3">
         <v>2</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D132" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E132" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F132" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B2:K7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H24:K30"/>
+  <mergeCells count="32">
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="H59:K65"/>
+    <mergeCell ref="H52:K57"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="H129:K132"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="H117:K121"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="H107:K115"/>
     <mergeCell ref="B75:F75"/>
@@ -3316,21 +3422,17 @@
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="H124:K127"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="H117:K121"/>
-    <mergeCell ref="H10:K22"/>
     <mergeCell ref="H75:K83"/>
     <mergeCell ref="H67:K73"/>
     <mergeCell ref="H44:K50"/>
     <mergeCell ref="B91:F91"/>
     <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="H59:K65"/>
-    <mergeCell ref="H52:K57"/>
+    <mergeCell ref="B2:K7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H24:K30"/>
+    <mergeCell ref="H10:K22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
